--- a/FactoriesOnTap/Resources/Specs.xlsx
+++ b/FactoriesOnTap/Resources/Specs.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,22 +459,22 @@
       </c>
       <c r="C4">
         <f>D4*B4</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -483,22 +483,22 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C7" si="0">D5*B5</f>
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>7</v>
       </c>
       <c r="G5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -507,10 +507,10 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -519,10 +519,10 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -554,22 +554,22 @@
       </c>
       <c r="C11">
         <f t="shared" ref="C11:C13" si="1">D11*B11</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -578,22 +578,22 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>7</v>
       </c>
       <c r="G12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -602,10 +602,10 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -637,22 +637,22 @@
       </c>
       <c r="C17">
         <f t="shared" ref="C17:C19" si="2">D17*B17</f>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17" s="3">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -661,22 +661,22 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F18">
         <v>7</v>
       </c>
       <c r="G18" s="3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -685,10 +685,10 @@
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -708,10 +708,10 @@
       </c>
       <c r="C23">
         <f t="shared" ref="C23:C24" si="3">D23*B23</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -720,10 +720,10 @@
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/FactoriesOnTap/Resources/Specs.xlsx
+++ b/FactoriesOnTap/Resources/Specs.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,15 +459,15 @@
       </c>
       <c r="C4">
         <f>D4*B4</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.1</v>
       </c>
       <c r="H4">
@@ -483,15 +483,15 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C7" si="0">D5*B5</f>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.2</v>
       </c>
       <c r="H5">
@@ -507,10 +507,10 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -519,10 +519,10 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -562,7 +562,7 @@
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>0.1</v>
       </c>
       <c r="H11">
@@ -586,7 +586,7 @@
       <c r="F12">
         <v>7</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0.2</v>
       </c>
       <c r="H12">
@@ -637,10 +637,10 @@
       </c>
       <c r="C17">
         <f t="shared" ref="C17:C19" si="2">D17*B17</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -661,10 +661,10 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F18">
         <v>7</v>
@@ -685,10 +685,10 @@
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -704,26 +704,26 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <f t="shared" ref="C23:C24" si="3">D23*B23</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/FactoriesOnTap/Resources/Specs.xlsx
+++ b/FactoriesOnTap/Resources/Specs.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,16 +459,16 @@
       </c>
       <c r="C4">
         <f>D4*B4</f>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>6</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -483,16 +483,16 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C7" si="0">D5*B5</f>
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>14</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -507,10 +507,10 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -519,10 +519,10 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -554,16 +554,16 @@
       </c>
       <c r="C11">
         <f t="shared" ref="C11:C13" si="1">D11*B11</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11" s="3">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -578,16 +578,16 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>7</v>
       </c>
       <c r="G12" s="3">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -602,10 +602,10 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -637,16 +637,16 @@
       </c>
       <c r="C17">
         <f t="shared" ref="C17:C19" si="2">D17*B17</f>
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17" s="3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -661,16 +661,16 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F18">
         <v>7</v>
       </c>
       <c r="G18" s="3">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -685,10 +685,10 @@
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>375</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -708,10 +708,10 @@
       </c>
       <c r="C23">
         <f t="shared" ref="C23:C24" si="3">D23*B23</f>
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -720,10 +720,10 @@
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="D24">
         <v>100</v>
-      </c>
-      <c r="D24">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/FactoriesOnTap/Resources/Specs.xlsx
+++ b/FactoriesOnTap/Resources/Specs.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -554,16 +554,16 @@
       </c>
       <c r="C11">
         <f t="shared" ref="C11:C13" si="1">D11*B11</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11" s="3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -578,16 +578,16 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F12">
         <v>7</v>
       </c>
       <c r="G12" s="3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -602,10 +602,10 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -637,16 +637,16 @@
       </c>
       <c r="C17">
         <f t="shared" ref="C17:C19" si="2">D17*B17</f>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -661,16 +661,16 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="D18">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>7</v>
       </c>
       <c r="G18" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -685,10 +685,10 @@
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="D19">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -708,10 +708,10 @@
       </c>
       <c r="C23">
         <f t="shared" ref="C23:C24" si="3">D23*B23</f>
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -720,10 +720,10 @@
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
